--- a/주야비비 운동계획.xlsx
+++ b/주야비비 운동계획.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\박준호\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\박준호\fire1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>주</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상체운동 50분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>러닝8키로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>코어컨디셔닝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>격투기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,6 +167,34 @@
   </si>
   <si>
     <t>전기 실기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨디셔닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코어 컨디셔닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와드 때리고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코어 운동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -665,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:J29"/>
+  <dimension ref="A4:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -677,7 +697,7 @@
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -692,16 +712,19 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
         <v>27</v>
       </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -713,10 +736,13 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -725,19 +751,22 @@
       <c r="D6" s="9"/>
       <c r="E6" s="5"/>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -746,16 +775,19 @@
       <c r="D7" s="9"/>
       <c r="E7" s="5"/>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7">
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>0.125</v>
       </c>
@@ -764,19 +796,22 @@
       <c r="D8" s="9"/>
       <c r="E8" s="5"/>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8">
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>0.16666666666666699</v>
       </c>
@@ -785,16 +820,19 @@
       <c r="D9" s="9"/>
       <c r="E9" s="5"/>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9">
         <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>0.20833333333333301</v>
       </c>
@@ -803,19 +841,22 @@
       <c r="D10" s="9"/>
       <c r="E10" s="5"/>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10">
         <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>0.25</v>
       </c>
@@ -824,19 +865,22 @@
       <c r="D11" s="9"/>
       <c r="E11" s="5"/>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11">
         <v>7</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>0.29166666666666702</v>
       </c>
@@ -847,16 +891,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="5"/>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12">
         <v>8</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>0.33333333333333298</v>
       </c>
@@ -867,21 +911,27 @@
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
       <c r="G13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>0.375</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>0.41666666666666702</v>
       </c>
@@ -892,7 +942,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>0.45833333333333298</v>
       </c>
@@ -909,14 +959,14 @@
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="13" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="5"/>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -924,13 +974,13 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="5"/>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -939,10 +989,12 @@
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="E19" s="5"/>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -951,14 +1003,12 @@
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -985,13 +1035,13 @@
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1031,7 +1081,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="5"/>
@@ -1053,6 +1103,16 @@
       <c r="C29" s="10"/>
       <c r="D29" s="8"/>
       <c r="E29" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/주야비비 운동계획.xlsx
+++ b/주야비비 운동계획.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>주</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +195,10 @@
   </si>
   <si>
     <t>코어 운동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복싱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,7 +692,7 @@
   <dimension ref="A4:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1059,7 +1063,9 @@
       <c r="A25" s="2">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="C25" s="9"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1070,8 +1076,12 @@
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="5"/>
+      <c r="D26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">

--- a/주야비비 운동계획.xlsx
+++ b/주야비비 운동계획.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>주</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,27 +38,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>점심</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저녁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오전공부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>러닝 8키로</t>
+    <t>코어운동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>러닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상체운동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하체운동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨디셔닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킥복싱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주짓수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레슬링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초운동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계체조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적응훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨디셔닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농구 몸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>러닝8키로 / 6:00 페이스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -66,75 +126,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>코어운동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저녁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>역도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>러닝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상체운동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하체운동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컨디셔닝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코어운동 + 컨디셔닝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>킥복싱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주짓수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레슬링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>농구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기초운동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기계체조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적응훈련</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우선순위</t>
+    <t>2km 러닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10초 전력질주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20초 전력질주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400미터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1키로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3키로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농구연습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>러닝8키로 / 6:00 페이스 / 스피드런</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>러닝8키로 / 6:00 페이스 / 스피드런</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">점심 농구 역습 / 레이업 / 점프슛 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아침 농구연습 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스내치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능성하체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -142,63 +194,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>격투기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공놀이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아크로바틱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기계 실기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기 필기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기 실기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컨디셔닝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코어 컨디셔닝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>와드 때리고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코어 운동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>복싱</t>
+    <t>부족한 근육</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코어 / 하체스트랭스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스내치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등 어깨 코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가슴 &gt; 등 &gt; 어깨 위주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">자유투 / 레이업 /뱅크슛 / 롱투 / </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -689,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:K33"/>
+  <dimension ref="A4:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -716,16 +736,16 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -740,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -755,16 +775,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="5"/>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -779,13 +799,13 @@
       <c r="D7" s="9"/>
       <c r="E7" s="5"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I7">
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -800,16 +820,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="5"/>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I8">
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -824,13 +844,13 @@
       <c r="D9" s="9"/>
       <c r="E9" s="5"/>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I9">
         <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -845,16 +865,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="5"/>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I10">
         <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -869,59 +889,48 @@
       <c r="D11" s="9"/>
       <c r="E11" s="5"/>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I11">
         <v>7</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>0.29166666666666702</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9"/>
       <c r="E12" s="5"/>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <v>8</v>
-      </c>
-      <c r="J12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="B13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="7"/>
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I13">
         <v>9</v>
-      </c>
-      <c r="J13" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -930,8 +939,8 @@
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>9</v>
+      <c r="D14" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="E14" s="5"/>
     </row>
@@ -942,7 +951,7 @@
       <c r="B15" s="9"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E15" s="5"/>
     </row>
@@ -952,151 +961,164 @@
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>0.5</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="5"/>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>0.54166666666666696</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="7"/>
+        <v>41</v>
+      </c>
       <c r="D18" s="7"/>
       <c r="E18" s="5"/>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>0.58333333333333304</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="5"/>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>0.625</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="5" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>0.66666666666666696</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>0.70833333333333304</v>
       </c>
       <c r="B22" s="9"/>
-      <c r="C22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="D22" s="7"/>
       <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>0.75</v>
       </c>
       <c r="B23" s="9"/>
-      <c r="C23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="5"/>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>8</v>
+      <c r="B24" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="7"/>
       <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>43</v>
-      </c>
+      <c r="B25" s="7"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>0.875</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="9"/>
+      <c r="B26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="D26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>0.91666666666666696</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="B27" s="7"/>
       <c r="C27" s="9" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>0.95833333333333304</v>
       </c>
@@ -1105,7 +1127,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -1113,16 +1135,6 @@
       <c r="C29" s="10"/>
       <c r="D29" s="8"/>
       <c r="E29" s="6"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>42</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/주야비비 운동계획.xlsx
+++ b/주야비비 운동계획.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\박준호\fire1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20685" windowHeight="10275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>주</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>러닝8키로 / 6:00 페이스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>러닝8키로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,58 +165,105 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">점심 농구 역습 / 레이업 / 점프슛 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">아침 농구연습 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스내치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능성하체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부족한 근육</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코어 / 하체스트랭스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스내치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등 어깨 코어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가슴 &gt; 등 &gt; 어깨 위주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">자유투 / 레이업 /뱅크슛 / 롱투 / </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주간휴게1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 폼롤러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 스트레칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 쉐도우킥복싱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주간휴게2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>러닝8키로 / 프리래틱코치코스 1개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폼롤러 스트래칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>러닝 기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농구 트레이닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역도+하체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상체 근력+근지구력</t>
+  </si>
+  <si>
+    <t>택1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야간휴게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">러닝8키로 / </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 농구경기시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 농구 없을 시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하체 근지구력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폼롤러 스트레칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하체 플라이오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복러닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아침 농구연습</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -489,7 +527,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -524,7 +562,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -701,7 +739,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -712,7 +750,7 @@
   <dimension ref="A4:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -805,7 +843,7 @@
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -898,7 +936,7 @@
         <v>7</v>
       </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -921,9 +959,11 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
       <c r="G13" t="s">
@@ -937,32 +977,44 @@
       <c r="A14" s="2">
         <v>0.375</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="D14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E16" s="5"/>
       <c r="G16" t="s">
@@ -973,7 +1025,9 @@
       <c r="A17" s="2">
         <v>0.5</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="C17" s="13"/>
       <c r="D17" s="7"/>
       <c r="E17" s="5"/>
@@ -982,9 +1036,7 @@
       <c r="A18" s="2">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="B18" s="9"/>
       <c r="D18" s="7"/>
       <c r="E18" s="5"/>
     </row>
@@ -992,7 +1044,9 @@
       <c r="A19" s="2">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="5"/>
@@ -1002,40 +1056,42 @@
         <v>0.625</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="E20" s="5"/>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="5"/>
+      <c r="B22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1044,15 +1100,19 @@
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="G23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s">
         <v>26</v>
-      </c>
-      <c r="I23" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1060,16 +1120,16 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="7"/>
       <c r="E24" s="5"/>
       <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" t="s">
         <v>28</v>
-      </c>
-      <c r="I24" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1077,13 +1137,17 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="9"/>
+      <c r="C25" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="D25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1091,17 +1155,19 @@
         <v>0.875</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1110,12 +1176,16 @@
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1123,9 +1193,15 @@
         <v>0.95833333333333304</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="5"/>
+      <c r="C28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">

--- a/주야비비 운동계획.xlsx
+++ b/주야비비 운동계획.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\박준호\fire1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20685" windowHeight="10275"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>주</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,18 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>러닝8키로 / 6:00 페이스 / 스피드런</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">아침 농구연습 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">자유투 / 레이업 /뱅크슛 / 롱투 / </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주간휴게1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,37 +178,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3. 쉐도우킥복싱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주간휴게2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>러닝8키로 / 프리래틱코치코스 1개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>폼롤러 스트래칭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>러닝 기본</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>농구 트레이닝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>역도+하체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상체 근력+근지구력</t>
-  </si>
-  <si>
     <t>택1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,42 +202,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 농구경기시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 농구 없을 시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하체 근지구력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폼롤러 스트레칭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하체 플라이오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복러닝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아침 농구연습</t>
+    <t>가벼운 5km 러닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스트랭스 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농구트레이닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터벌 하드 러닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스트랭스 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모빌리티 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복훈련 등 맞춰서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야간 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그날 몸상태보고 하고싶은 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">폼롤러 스트레칭 등 회복 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -739,7 +721,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -750,7 +732,7 @@
   <dimension ref="A4:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -959,11 +941,9 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C13" s="7"/>
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
       <c r="G13" t="s">
@@ -978,31 +958,29 @@
         <v>0.375</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>0.41666666666666702</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="D15" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1010,13 +988,13 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="5"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="G16" t="s">
         <v>22</v>
       </c>
@@ -1025,9 +1003,7 @@
       <c r="A17" s="2">
         <v>0.5</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="B17" s="9"/>
       <c r="C17" s="13"/>
       <c r="D17" s="7"/>
       <c r="E17" s="5"/>
@@ -1045,7 +1021,7 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1055,9 +1031,7 @@
       <c r="A20" s="2">
         <v>0.625</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="B20" s="9"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="5"/>
@@ -1070,7 +1044,7 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1081,15 +1055,11 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="5"/>
       <c r="G22" t="s">
         <v>24</v>
       </c>
@@ -1098,16 +1068,12 @@
       <c r="A23" s="2">
         <v>0.75</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="B23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="5"/>
       <c r="G23" t="s">
         <v>25</v>
       </c>
@@ -1123,8 +1089,12 @@
         <v>43</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="5"/>
+      <c r="D24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="G24" t="s">
         <v>27</v>
       </c>
@@ -1138,14 +1108,10 @@
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>53</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="5"/>
       <c r="G25" t="s">
         <v>29</v>
       </c>
@@ -1155,17 +1121,15 @@
         <v>0.875</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>54</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E26" s="5"/>
       <c r="G26" t="s">
         <v>30</v>
       </c>
@@ -1175,15 +1139,9 @@
         <v>0.91666666666666696</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="5"/>
       <c r="G27" t="s">
         <v>31</v>
       </c>
@@ -1194,14 +1152,10 @@
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>57</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">

--- a/주야비비 운동계획.xlsx
+++ b/주야비비 운동계획.xlsx
@@ -1,18 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\박준호\fire1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20685" windowHeight="10275"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="부상" sheetId="2" r:id="rId1"/>
+    <sheet name="컨디션 좋을때" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="104">
   <si>
     <t>주</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,13 +235,202 @@
   </si>
   <si>
     <t xml:space="preserve">폼롤러 스트레칭 등 회복 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종아리 및 발목재활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC소방 진도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모의고사 답보고 빠르게 풀기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모의고사 백지로 시험보듯이 풀기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기 인강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계 모의고사1회분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종아리 및 발목재활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가벼운 러닝 + 농구슛팅연습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계모의고사 1회분 - 공하성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC소방 - 기계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가동성 코어 기초근력 상체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한발 운동 + 하체 근력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC소방 - 기계풀이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종아리 및 발목재활 30분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계모의고사 1회분 공하성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계모의고사 1회분 다산에듀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계모의고사 1회분 - 다산에듀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가벼운러닝 + 농구슛팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계모의고사 1회분 공하성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계모의고사 1회분 다산에듀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기계기사 원서접수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 28일</t>
+  </si>
+  <si>
+    <t xml:space="preserve">화재감식기사 필기 원서접수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월 17일</t>
+  </si>
+  <si>
+    <t xml:space="preserve">설비기사 기계 실기시험 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월 22일</t>
+  </si>
+  <si>
+    <t>5월 13일</t>
+  </si>
+  <si>
+    <t>6월 19일</t>
+  </si>
+  <si>
+    <t>6월 27일</t>
+  </si>
+  <si>
+    <t>8월 7일</t>
+  </si>
+  <si>
+    <t>9월 4일</t>
+  </si>
+  <si>
+    <t>9월 2일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 7일</t>
+  </si>
+  <si>
+    <t>10월 10일</t>
+  </si>
+  <si>
+    <t>11월 4일</t>
+  </si>
+  <si>
+    <t>7월 8일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 22일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">화재감식기사 필기시험 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">화재감식기사 필기 3차원서접수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">설비기사 전기 2차 원서접수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">화재감식기사 필기 3차 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">설비기사 전기 2차 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">위험물 산업기사 필기 4차 원서접수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">화재감식기사 실기 3차 원서접수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">화재감식기사 실기 3차 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">위산기 실기 4차 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">위산기 실기 4차 원서접수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위산기 필기 4차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,7 +590,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -447,6 +632,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -721,7 +909,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -729,10 +917,405 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="30.625" customWidth="1"/>
+    <col min="7" max="7" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="5"/>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="5"/>
+      <c r="G7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="5"/>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="5"/>
+      <c r="G9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="G10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="5"/>
+      <c r="G11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="5"/>
+      <c r="G12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="5"/>
+      <c r="G13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="G15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="5"/>
+      <c r="G16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="5"/>
+      <c r="G17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="D18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="5"/>
+      <c r="G19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/주야비비 운동계획.xlsx
+++ b/주야비비 운동계획.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13번 수보대 행정 PC\Desktop\박준호\fire1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20685" windowHeight="10275"/>
   </bookViews>
   <sheets>
-    <sheet name="부상" sheetId="2" r:id="rId1"/>
-    <sheet name="컨디션 좋을때" sheetId="1" r:id="rId2"/>
+    <sheet name="뉴" sheetId="4" r:id="rId1"/>
+    <sheet name="부상" sheetId="2" r:id="rId2"/>
+    <sheet name="컨디션 좋을때" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="115">
   <si>
     <t>주</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,13 +430,57 @@
   </si>
   <si>
     <t>위산기 필기 4차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로 공부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21년도 마스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21년도 마스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농구 연습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농구연습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20년도 마스터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -909,7 +959,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -920,6 +970,336 @@
   <dimension ref="A4:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="6" width="30.625" customWidth="1"/>
+    <col min="7" max="7" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="7"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="7"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="7"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="7"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="7"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="7"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="9"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="9"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="9"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="9"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:H29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -1310,7 +1690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:K29"/>
   <sheetViews>

--- a/주야비비 운동계획.xlsx
+++ b/주야비비 운동계획.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13번 수보대 행정 PC\Desktop\박준호\fire1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\박준호\fire1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16980D27-AAFD-4A60-BB55-87C67EB5470D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20685" windowHeight="10275"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="뉴" sheetId="4" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="122">
   <si>
     <t>주</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -474,13 +475,41 @@
   </si>
   <si>
     <t>20년도 마스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일 할건 외외로 쉬움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아쉬탕가 요가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animal flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농구 드리블 30분, 슈팅 300개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축구 드리블 30분, 트래핑300개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ATG pro </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카포에라 태권도 복싱 주짓수 레슬링</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -966,11 +995,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:H29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A4:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1288,6 +1317,51 @@
       <c r="E29" s="6"/>
       <c r="F29" s="8"/>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1296,7 +1370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:H29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1691,7 +1765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/주야비비 운동계획.xlsx
+++ b/주야비비 운동계획.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\박준호\fire1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16980D27-AAFD-4A60-BB55-87C67EB5470D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="뉴" sheetId="4" r:id="rId1"/>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="123">
   <si>
     <t>주</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -434,50 +428,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>바로 공부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21년도 마스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점심</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21년도 마스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>농구 연습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저녁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>농구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>농구연습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20년도 마스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>매일 할건 외외로 쉬움</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -503,13 +453,61 @@
   </si>
   <si>
     <t>카포에라 태권도 복싱 주짓수 레슬링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위험물 빈칸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">소공법 개념서 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행정법 복습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행정법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소공법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위험물빈칸 + 소공법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행정법 복습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>러닝 농구 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>러닝 농구훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하체 힘키우는 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상체 힘 키우는 시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -536,7 +534,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,6 +550,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,7 +685,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -714,6 +730,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -988,18 +1025,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1066,7 +1103,9 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>116</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="7"/>
       <c r="H8" s="14"/>
@@ -1131,11 +1170,9 @@
         <v>0.375</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="7"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="9"/>
       <c r="H14" s="14"/>
     </row>
@@ -1143,17 +1180,15 @@
       <c r="A15" s="2">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>114</v>
-      </c>
+      <c r="B15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="9"/>
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1161,9 +1196,9 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="5"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="9"/>
       <c r="H16" s="14"/>
     </row>
@@ -1171,12 +1206,12 @@
       <c r="A17" s="2">
         <v>0.5</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" s="5"/>
+      <c r="B17" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="9"/>
       <c r="H17" s="14"/>
     </row>
@@ -1185,8 +1220,9 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="5"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="9"/>
       <c r="H18" s="14"/>
     </row>
@@ -1195,11 +1231,13 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="5"/>
+      <c r="C19" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18" t="s">
+        <v>114</v>
+      </c>
       <c r="F19" s="9"/>
       <c r="H19" s="14"/>
     </row>
@@ -1208,25 +1246,19 @@
         <v>0.625</v>
       </c>
       <c r="B20" s="9"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>113</v>
-      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>0.66666666666666696</v>
       </c>
       <c r="B21" s="9"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="5"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1234,11 +1266,11 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="B22" s="9"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="5"/>
+      <c r="C22" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="21"/>
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1246,9 +1278,9 @@
         <v>0.75</v>
       </c>
       <c r="B23" s="9"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="5"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1257,44 +1289,54 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>111</v>
-      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="5"/>
+      <c r="B25" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>118</v>
+      </c>
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>0.875</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="15" t="s">
+        <v>120</v>
+      </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="7" t="s">
-        <v>112</v>
-      </c>
+      <c r="D26" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>0.91666666666666696</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="5"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1319,32 +1361,32 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
@@ -1359,7 +1401,7 @@
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1370,7 +1412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:H29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1765,7 +1807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
